--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1728458.61179567</v>
+        <v>1726571.030279268</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>211.0025011558363</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.04933525942378</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -795,7 +795,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494254</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>88.18421182873882</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>249.8693358044774</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>138.3038958997682</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>172.2019400365383</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>99.34508049624269</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>237.622374746331</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>15.14483238681411</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>72.43998417784667</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>169.1770053157904</v>
+        <v>52.09017966324576</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,10 +1610,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>132.0653562270684</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>79.57910444456581</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>19.29597424624084</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,13 +2056,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>94.1648127494126</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>116.9112894322951</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>136.5752847581504</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2296,10 +2296,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>38.10396789880561</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>68.03265560120175</v>
       </c>
     </row>
     <row r="26">
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>70.9477713720308</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>27.37255160319408</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700707</v>
@@ -2959,10 +2959,10 @@
         <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>3.256222267511628</v>
       </c>
       <c r="G31" t="n">
-        <v>37.66715442651815</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>93.71057173897904</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463113</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.452763222454</v>
       </c>
     </row>
     <row r="35">
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1299.526533804879</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>1299.526533804879</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2449.731464105892</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2076.265705844813</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1686.126373869001</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598709</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323009</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323009</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323009</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323009</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323009</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323009</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323009</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>327.5890571512474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>327.5890571512474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323009</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323009</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>764.2362323993566</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C5" t="n">
-        <v>395.2737154589449</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>395.2737154589449</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>395.2737154589449</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.44116270037</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1540.97540443929</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1150.836072463478</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,19 +4647,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U7" t="n">
-        <v>211.6471865296039</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6471865296039</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6471865296039</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6471865296039</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>468.3004633897571</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>228.2778626358874</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>228.2778626358874</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>83.16419637350498</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>69.24079231209588</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960885</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1618.50539369077</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1245.039635429691</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>854.9003034538789</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4887,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.8558756644252</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>370.8558756644252</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>370.8558756644252</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>370.8558756644252</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.8558756644252</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977053</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.2482765610114</v>
+        <v>563.4221461351942</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331045</v>
+        <v>563.4221461351942</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>413.3055067228585</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>844.0280401273992</v>
       </c>
       <c r="W13" t="n">
-        <v>1328.030406602559</v>
+        <v>791.4116970332116</v>
       </c>
       <c r="X13" t="n">
-        <v>1100.040855704541</v>
+        <v>563.4221461351942</v>
       </c>
       <c r="Y13" t="n">
-        <v>879.2482765610114</v>
+        <v>563.4221461351942</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5273,55 +5273,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>462.7283310300493</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>709.4934589365134</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N15" t="n">
-        <v>1646.27469227828</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O15" t="n">
-        <v>2315.738453580939</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.0436439308535</v>
+        <v>549.6692635248403</v>
       </c>
       <c r="C16" t="n">
-        <v>527.0436439308535</v>
+        <v>380.7330805969334</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185177</v>
+        <v>230.6164411845976</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>230.6164411845976</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W16" t="n">
-        <v>1009.867621687013</v>
+        <v>731.31772835508</v>
       </c>
       <c r="X16" t="n">
-        <v>929.4846879046232</v>
+        <v>731.31772835508</v>
       </c>
       <c r="Y16" t="n">
-        <v>708.6921087610932</v>
+        <v>731.31772835508</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,7 +5510,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5534,25 +5534,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>550.2226492899335</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>857.5427825698952</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>376.1556594977424</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.21084526296</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W19" t="n">
-        <v>785.7936752259994</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>557.8041243279821</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>557.8041243279821</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5732,25 +5732,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>326.2492756170072</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>940.1463453738959</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413.3055067228584</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="C22" t="n">
-        <v>413.3055067228584</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5923,7 +5923,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765184</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706312</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706312</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X22" t="n">
-        <v>531.3977182706312</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y22" t="n">
-        <v>531.3977182706312</v>
+        <v>385.5899330013834</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>584.7466045204288</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="C25" t="n">
-        <v>415.8104215925219</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925219</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.712528333286</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>844.028040127399</v>
+        <v>820.5263570570735</v>
       </c>
       <c r="W25" t="n">
-        <v>805.539183663959</v>
+        <v>820.5263570570735</v>
       </c>
       <c r="X25" t="n">
-        <v>805.539183663959</v>
+        <v>592.5368061590561</v>
       </c>
       <c r="Y25" t="n">
-        <v>584.7466045204288</v>
+        <v>523.8169520164281</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6251,25 +6251,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>400.2445180358627</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1014.141587792751</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1321.461721072713</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1651.324348736746</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>542.136771952925</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>542.136771952925</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E28" t="n">
         <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799364</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1427.251855030599</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1427.251855030599</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1427.251855030599</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1172.567366824712</v>
+        <v>1182.138589748032</v>
       </c>
       <c r="W28" t="n">
-        <v>1172.567366824712</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="X28" t="n">
-        <v>944.5778159266947</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y28" t="n">
-        <v>723.7852367831647</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>620.7342676598911</v>
+        <v>494.8466681110224</v>
       </c>
       <c r="C31" t="n">
-        <v>507.558950013355</v>
+        <v>381.6713504644863</v>
       </c>
       <c r="D31" t="n">
-        <v>413.20317588239</v>
+        <v>287.3155763335213</v>
       </c>
       <c r="E31" t="n">
-        <v>321.0509475813677</v>
+        <v>195.163348032499</v>
       </c>
       <c r="F31" t="n">
-        <v>229.9218653648282</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="G31" t="n">
         <v>191.8742346309718</v>
@@ -6622,10 +6622,10 @@
         <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
         <v>997.6688721962053</v>
@@ -6640,13 +6640,13 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
         <v>1623.942368323874</v>
@@ -6658,13 +6658,13 @@
         <v>1191.650971894287</v>
       </c>
       <c r="W31" t="n">
-        <v>957.994667138697</v>
+        <v>957.9946671386972</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220504</v>
+        <v>785.7659815220507</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598911</v>
+        <v>620.7342676598913</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1236.836466556557</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,19 +6871,19 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,16 +7023,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1689.561836756086</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2019.424464420119</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2298.964529638816</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,13 +7096,13 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859416</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7166,19 +7166,19 @@
         <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="41">
@@ -7403,13 +7403,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7421,19 +7421,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231263</v>
@@ -7451,7 +7451,7 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614725</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>474.8900731662879</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>1088.787142923177</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M42" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525404</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7725,22 +7725,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,28 +7804,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142009</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>176.7176547498442</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>15.83804904622852</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>38.86002301949898</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,13 +9726,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>113.6026921294539</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>28.12263706262996</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>32.78140656352451</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>124.3400780863232</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>62.9112074258384</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>20.63789864135478</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,19 +23470,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>117.3459930208006</v>
+        <v>234.4328186733453</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>13.35569179586285</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>146.1305509444713</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>147.950846852387</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.92069074964216</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>29.91828370522713</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>248.4190304377854</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>150.551997750893</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>126.9730386115724</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>224.7650917206339</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,10 +24847,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>86.96156912686254</v>
       </c>
       <c r="G31" t="n">
-        <v>73.62315740830235</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>906495.7753621624</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>906495.7753621622</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621624</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="11">
@@ -26314,43 +26314,43 @@
         <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
+        <v>492625.0619185698</v>
+      </c>
+      <c r="D2" t="n">
+        <v>492625.0619185699</v>
+      </c>
+      <c r="E2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="F2" t="n">
+        <v>469234.8716852501</v>
+      </c>
+      <c r="G2" t="n">
+        <v>469234.8716852501</v>
+      </c>
+      <c r="H2" t="n">
+        <v>469234.8716852502</v>
+      </c>
+      <c r="I2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="J2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="K2" t="n">
+        <v>488186.5648143236</v>
+      </c>
+      <c r="L2" t="n">
         <v>492625.06191857</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.06191857</v>
-      </c>
-      <c r="E2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="F2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="G2" t="n">
-        <v>469234.8716852502</v>
-      </c>
-      <c r="H2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="J2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="K2" t="n">
-        <v>488186.5648143234</v>
-      </c>
-      <c r="L2" t="n">
-        <v>492625.0619185702</v>
       </c>
       <c r="M2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="N2" t="n">
+        <v>492625.0619185701</v>
+      </c>
+      <c r="O2" t="n">
         <v>492625.0619185703</v>
-      </c>
-      <c r="O2" t="n">
-        <v>492625.0619185704</v>
       </c>
       <c r="P2" t="n">
         <v>492625.0619185703</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145447</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284567</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.73165600745</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007456</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007497</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007496</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007484</v>
-      </c>
       <c r="I4" t="n">
-        <v>7916.731656007458</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007503</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020399</v>
+        <v>26081.35417020403</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732794</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732795</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30335.51889732803</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732796</v>
-      </c>
-      <c r="M4" t="n">
-        <v>30335.51889732796</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732796</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732802</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732795</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26494,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328118.9440753051</v>
+        <v>-328118.9440753049</v>
       </c>
       <c r="C6" t="n">
-        <v>261848.9351392397</v>
+        <v>261848.9351392395</v>
       </c>
       <c r="D6" t="n">
-        <v>261848.9351392397</v>
+        <v>261848.9351392396</v>
       </c>
       <c r="E6" t="n">
-        <v>-155829.2223963698</v>
+        <v>-155926.6815223423</v>
       </c>
       <c r="F6" t="n">
-        <v>369330.8140805261</v>
+        <v>369233.3549545537</v>
       </c>
       <c r="G6" t="n">
-        <v>369330.8140805261</v>
+        <v>369233.3549545541</v>
       </c>
       <c r="H6" t="n">
-        <v>369330.8140805264</v>
+        <v>369233.3549545539</v>
       </c>
       <c r="I6" t="n">
-        <v>369330.8140805264</v>
+        <v>369233.3549545539</v>
       </c>
       <c r="J6" t="n">
-        <v>192907.5948879331</v>
+        <v>192810.1357619612</v>
       </c>
       <c r="K6" t="n">
-        <v>321314.396811051</v>
+        <v>321295.9030731168</v>
       </c>
       <c r="L6" t="n">
-        <v>354231.53040035</v>
+        <v>354231.5304003498</v>
       </c>
       <c r="M6" t="n">
-        <v>229773.4219673796</v>
+        <v>229773.4219673795</v>
       </c>
       <c r="N6" t="n">
-        <v>364574.437201217</v>
+        <v>364574.4372012168</v>
       </c>
       <c r="O6" t="n">
-        <v>364574.437201217</v>
+        <v>364574.4372012169</v>
       </c>
       <c r="P6" t="n">
         <v>320411.8318983713</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,16 +26744,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26771,10 +26771,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108358</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>154.2703906151712</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>333.1916334579892</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>60.43126118947353</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>2.268307519350572</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>226.9689958712394</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>234.6741057051731</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>56.82580834555246</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.45749068994772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>127.6505170246765</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>308.777940377543</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>214.0830141587443</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28330,10 +28330,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30523,10 +30523,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,43 +31045,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,25 +31221,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34129,40 +34129,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,10 +34202,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34214,7 +34214,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34223,10 +34223,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34302,7 +34302,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,10 +34314,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34869,10 +34869,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35255,7 +35255,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>327.2930933377835</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>222.9314639777532</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>265.0957540022528</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>189.4354616074382</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36446,13 +36446,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>693.6972596887384</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>264.1781307173932</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36686,16 +36686,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>510.1640057735818</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,10 +36926,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>338.5470141130963</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,10 +37400,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>239.8748214950492</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>213.4866460137776</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595511</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -37956,7 +37956,7 @@
         <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015153</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38108,10 +38108,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>227.7313135728794</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
